--- a/dataanalysis/data/predictions/1600/08181521_1523.xlsx
+++ b/dataanalysis/data/predictions/1600/08181521_1523.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="226">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-18</t>
   </si>
   <si>
@@ -689,12 +692,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1052,13 +1049,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH130"/>
+  <dimension ref="A1:AI130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,19 +1158,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300033</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>10.27</v>
@@ -1191,7 +1191,7 @@
         <v>1203550.72</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1232,8 +1232,23 @@
       <c r="W2">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X2">
+        <v>-3.86</v>
+      </c>
+      <c r="Y2">
+        <v>404.99</v>
+      </c>
+      <c r="Z2">
+        <v>0.02</v>
+      </c>
       <c r="AC2" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1241,22 +1256,25 @@
       <c r="AG2">
         <v>4.886885166168213</v>
       </c>
-      <c r="AH2" t="s">
-        <v>225</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300066</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>4.67</v>
@@ -1274,7 +1292,7 @@
         <v>107312.36</v>
       </c>
       <c r="J3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1315,8 +1333,23 @@
       <c r="W3">
         <v>0.55</v>
       </c>
+      <c r="X3">
+        <v>-1.26</v>
+      </c>
+      <c r="Y3">
+        <v>7.34</v>
+      </c>
+      <c r="Z3">
+        <v>2.37</v>
+      </c>
       <c r="AC3" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1324,22 +1357,25 @@
       <c r="AG3">
         <v>2.425705194473267</v>
       </c>
-      <c r="AH3" t="s">
-        <v>225</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300145</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1357,7 +1393,7 @@
         <v>213444.19</v>
       </c>
       <c r="J4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1398,8 +1434,23 @@
       <c r="W4">
         <v>-1.08</v>
       </c>
+      <c r="X4">
+        <v>-5.31</v>
+      </c>
+      <c r="Y4">
+        <v>5.61</v>
+      </c>
+      <c r="Z4">
+        <v>2.75</v>
+      </c>
       <c r="AC4" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1407,22 +1458,25 @@
       <c r="AG4">
         <v>2.526121854782104</v>
       </c>
-      <c r="AH4" t="s">
-        <v>225</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300158</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0.7</v>
@@ -1440,7 +1494,7 @@
         <v>104409.65</v>
       </c>
       <c r="J5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K5">
         <v>19</v>
@@ -1481,8 +1535,23 @@
       <c r="W5">
         <v>-0.92</v>
       </c>
+      <c r="X5">
+        <v>5.82</v>
+      </c>
+      <c r="Y5">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>15.02</v>
+      </c>
       <c r="AC5" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1490,22 +1559,25 @@
       <c r="AG5">
         <v>-4.127053737640381</v>
       </c>
-      <c r="AH5" t="s">
-        <v>225</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300188</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-0.27</v>
@@ -1523,7 +1595,7 @@
         <v>194649.82</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -1564,8 +1636,23 @@
       <c r="W6">
         <v>0.27</v>
       </c>
+      <c r="X6">
+        <v>-1.38</v>
+      </c>
+      <c r="Y6">
+        <v>19.19</v>
+      </c>
+      <c r="Z6">
+        <v>2.07</v>
+      </c>
       <c r="AC6" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1573,22 +1660,25 @@
       <c r="AG6">
         <v>8.21602725982666</v>
       </c>
-      <c r="AH6" t="s">
-        <v>225</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300196</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>3.68</v>
@@ -1606,7 +1696,7 @@
         <v>58457.98</v>
       </c>
       <c r="J7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1647,8 +1737,23 @@
       <c r="W7">
         <v>0.66</v>
       </c>
+      <c r="X7">
+        <v>-3.14</v>
+      </c>
+      <c r="Y7">
+        <v>16.9</v>
+      </c>
+      <c r="Z7">
+        <v>-1.74</v>
+      </c>
       <c r="AC7" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1656,22 +1761,25 @@
       <c r="AG7">
         <v>-1.523255109786987</v>
       </c>
-      <c r="AH7" t="s">
-        <v>225</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300199</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>14.77</v>
@@ -1689,7 +1797,7 @@
         <v>503091.35</v>
       </c>
       <c r="J8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K8">
         <v>15</v>
@@ -1730,8 +1838,23 @@
       <c r="W8">
         <v>-0.1</v>
       </c>
+      <c r="X8">
+        <v>-2.17</v>
+      </c>
+      <c r="Y8">
+        <v>30.67</v>
+      </c>
+      <c r="Z8">
+        <v>2.54</v>
+      </c>
       <c r="AC8" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1739,22 +1862,25 @@
       <c r="AG8">
         <v>11.53941631317139</v>
       </c>
-      <c r="AH8" t="s">
-        <v>225</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300213</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-0.73</v>
@@ -1772,7 +1898,7 @@
         <v>97230.96000000001</v>
       </c>
       <c r="J9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1813,8 +1939,23 @@
       <c r="W9">
         <v>-0.59</v>
       </c>
+      <c r="X9">
+        <v>0.92</v>
+      </c>
+      <c r="Y9">
+        <v>11.09</v>
+      </c>
+      <c r="Z9">
+        <v>2.4</v>
+      </c>
       <c r="AC9" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1822,22 +1963,25 @@
       <c r="AG9">
         <v>28.72599411010742</v>
       </c>
-      <c r="AH9" t="s">
-        <v>225</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300214</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>1.78</v>
@@ -1855,7 +1999,7 @@
         <v>46624.2</v>
       </c>
       <c r="J10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1896,8 +2040,23 @@
       <c r="W10">
         <v>-0.06</v>
       </c>
+      <c r="X10">
+        <v>-4.66</v>
+      </c>
+      <c r="Y10">
+        <v>8.44</v>
+      </c>
+      <c r="Z10">
+        <v>-1.63</v>
+      </c>
       <c r="AC10" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1905,22 +2064,25 @@
       <c r="AG10">
         <v>0.4259847104549408</v>
       </c>
-      <c r="AH10" t="s">
-        <v>225</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300218</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>2.81</v>
@@ -1938,7 +2100,7 @@
         <v>50047.62</v>
       </c>
       <c r="J11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K11">
         <v>7</v>
@@ -1979,8 +2141,23 @@
       <c r="W11">
         <v>0.49</v>
       </c>
+      <c r="X11">
+        <v>0.35</v>
+      </c>
+      <c r="Y11">
+        <v>23.08</v>
+      </c>
+      <c r="Z11">
+        <v>1.67</v>
+      </c>
       <c r="AC11" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1988,22 +2165,25 @@
       <c r="AG11">
         <v>2.96663761138916</v>
       </c>
-      <c r="AH11" t="s">
-        <v>225</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300224</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>4.41</v>
@@ -2021,7 +2201,7 @@
         <v>217221.38</v>
       </c>
       <c r="J12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K12">
         <v>8</v>
@@ -2062,8 +2242,23 @@
       <c r="W12">
         <v>-0.08</v>
       </c>
+      <c r="X12">
+        <v>-2.71</v>
+      </c>
+      <c r="Y12">
+        <v>19.45</v>
+      </c>
+      <c r="Z12">
+        <v>1.41</v>
+      </c>
       <c r="AC12" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2071,22 +2266,25 @@
       <c r="AG12">
         <v>11.30635356903076</v>
       </c>
-      <c r="AH12" t="s">
-        <v>225</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300252</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>11.89</v>
@@ -2104,7 +2302,7 @@
         <v>154393.83</v>
       </c>
       <c r="J13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2145,8 +2343,23 @@
       <c r="W13">
         <v>0.84</v>
       </c>
+      <c r="X13">
+        <v>0.85</v>
+      </c>
+      <c r="Y13">
+        <v>14.73</v>
+      </c>
+      <c r="Z13">
+        <v>4.32</v>
+      </c>
       <c r="AC13" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2154,22 +2367,25 @@
       <c r="AG13">
         <v>10.41705417633057</v>
       </c>
-      <c r="AH13" t="s">
-        <v>225</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300300</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-2.96</v>
@@ -2187,7 +2403,7 @@
         <v>62038.02</v>
       </c>
       <c r="J14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -2228,8 +2444,23 @@
       <c r="W14">
         <v>-1.67</v>
       </c>
+      <c r="X14">
+        <v>3.39</v>
+      </c>
+      <c r="Y14">
+        <v>6.52</v>
+      </c>
+      <c r="Z14">
+        <v>10.51</v>
+      </c>
       <c r="AC14" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2237,22 +2468,25 @@
       <c r="AG14">
         <v>2.13008451461792</v>
       </c>
-      <c r="AH14" t="s">
-        <v>225</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300304</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-2.54</v>
@@ -2270,7 +2504,7 @@
         <v>64415.23</v>
       </c>
       <c r="J15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K15">
         <v>6</v>
@@ -2311,8 +2545,23 @@
       <c r="W15">
         <v>-1.13</v>
       </c>
+      <c r="X15">
+        <v>1.5</v>
+      </c>
+      <c r="Y15">
+        <v>13.16</v>
+      </c>
+      <c r="Z15">
+        <v>3.95</v>
+      </c>
       <c r="AC15" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2320,22 +2569,25 @@
       <c r="AG15">
         <v>-0.6578217744827271</v>
       </c>
-      <c r="AH15" t="s">
-        <v>225</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300322</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>4.63</v>
@@ -2353,7 +2605,7 @@
         <v>361525.86</v>
       </c>
       <c r="J16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K16">
         <v>16</v>
@@ -2394,8 +2646,23 @@
       <c r="W16">
         <v>-1.14</v>
       </c>
+      <c r="X16">
+        <v>-9.09</v>
+      </c>
+      <c r="Y16">
+        <v>27.61</v>
+      </c>
+      <c r="Z16">
+        <v>-3.09</v>
+      </c>
       <c r="AC16" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2403,22 +2670,25 @@
       <c r="AG16">
         <v>3.18614649772644</v>
       </c>
-      <c r="AH16" t="s">
-        <v>225</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300368</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>0.36</v>
@@ -2436,7 +2706,7 @@
         <v>272791.6</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17">
         <v>7</v>
@@ -2477,8 +2747,23 @@
       <c r="W17">
         <v>-2.97</v>
       </c>
+      <c r="X17">
+        <v>-2.86</v>
+      </c>
+      <c r="Y17">
+        <v>17.63</v>
+      </c>
+      <c r="Z17">
+        <v>5.19</v>
+      </c>
       <c r="AC17" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2486,22 +2771,25 @@
       <c r="AG17">
         <v>-0.2442805171012878</v>
       </c>
-      <c r="AH17" t="s">
-        <v>225</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300395</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>3.23</v>
@@ -2519,7 +2807,7 @@
         <v>275366.2</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -2560,8 +2848,23 @@
       <c r="W18">
         <v>-0.27</v>
       </c>
+      <c r="X18">
+        <v>-7.23</v>
+      </c>
+      <c r="Y18">
+        <v>100.01</v>
+      </c>
+      <c r="Z18">
+        <v>-2.44</v>
+      </c>
       <c r="AC18" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2569,22 +2872,25 @@
       <c r="AG18">
         <v>7.305861473083496</v>
       </c>
-      <c r="AH18" t="s">
-        <v>225</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300398</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>5.07</v>
@@ -2602,7 +2908,7 @@
         <v>232992.61</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -2643,8 +2949,23 @@
       <c r="W19">
         <v>0.48</v>
       </c>
+      <c r="X19">
+        <v>-4.58</v>
+      </c>
+      <c r="Y19">
+        <v>24.53</v>
+      </c>
+      <c r="Z19">
+        <v>-1.45</v>
+      </c>
       <c r="AC19" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2652,22 +2973,25 @@
       <c r="AG19">
         <v>-8.52753734588623</v>
       </c>
-      <c r="AH19" t="s">
-        <v>225</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300400</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-1.64</v>
@@ -2685,7 +3009,7 @@
         <v>130011.75</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K20">
         <v>6</v>
@@ -2726,8 +3050,23 @@
       <c r="W20">
         <v>-1.04</v>
       </c>
+      <c r="X20">
+        <v>2.72</v>
+      </c>
+      <c r="Y20">
+        <v>27.8</v>
+      </c>
+      <c r="Z20">
+        <v>5.02</v>
+      </c>
       <c r="AC20" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2735,22 +3074,25 @@
       <c r="AG20">
         <v>-0.5315648317337036</v>
       </c>
-      <c r="AH20" t="s">
-        <v>225</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300409</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>10.66</v>
@@ -2768,7 +3110,7 @@
         <v>234177.36</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2809,8 +3151,23 @@
       <c r="W21">
         <v>0.99</v>
       </c>
+      <c r="X21">
+        <v>2.92</v>
+      </c>
+      <c r="Y21">
+        <v>21.87</v>
+      </c>
+      <c r="Z21">
+        <v>4.79</v>
+      </c>
       <c r="AC21" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2818,22 +3175,25 @@
       <c r="AG21">
         <v>9.58925724029541</v>
       </c>
-      <c r="AH21" t="s">
-        <v>225</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300430</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-1.59</v>
@@ -2851,7 +3211,7 @@
         <v>101491.37</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2892,8 +3252,23 @@
       <c r="W22">
         <v>-1.65</v>
       </c>
+      <c r="X22">
+        <v>-2.24</v>
+      </c>
+      <c r="Y22">
+        <v>24.43</v>
+      </c>
+      <c r="Z22">
+        <v>1.45</v>
+      </c>
       <c r="AC22" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2901,22 +3276,25 @@
       <c r="AG22">
         <v>1.672916054725647</v>
       </c>
-      <c r="AH22" t="s">
-        <v>225</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300436</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>2.98</v>
@@ -2934,7 +3312,7 @@
         <v>250063.56</v>
       </c>
       <c r="J23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K23">
         <v>33</v>
@@ -2975,8 +3353,23 @@
       <c r="W23">
         <v>-0.71</v>
       </c>
+      <c r="X23">
+        <v>-6.58</v>
+      </c>
+      <c r="Y23">
+        <v>188.93</v>
+      </c>
+      <c r="Z23">
+        <v>9.699999999999999</v>
+      </c>
       <c r="AC23" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2984,22 +3377,25 @@
       <c r="AG23">
         <v>13.12504863739014</v>
       </c>
-      <c r="AH23" t="s">
-        <v>225</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300453</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>10.89</v>
@@ -3017,7 +3413,7 @@
         <v>54815.05</v>
       </c>
       <c r="J24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -3058,8 +3454,23 @@
       <c r="W24">
         <v>1.18</v>
       </c>
+      <c r="X24">
+        <v>-0.36</v>
+      </c>
+      <c r="Y24">
+        <v>11.64</v>
+      </c>
+      <c r="Z24">
+        <v>4.86</v>
+      </c>
       <c r="AC24" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3067,22 +3478,25 @@
       <c r="AG24">
         <v>4.724275588989258</v>
       </c>
-      <c r="AH24" t="s">
-        <v>225</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300455</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>4.05</v>
@@ -3100,7 +3514,7 @@
         <v>111881.09</v>
       </c>
       <c r="J25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25">
         <v>10</v>
@@ -3141,8 +3555,23 @@
       <c r="W25">
         <v>-0.38</v>
       </c>
+      <c r="X25">
+        <v>-2.9</v>
+      </c>
+      <c r="Y25">
+        <v>19.07</v>
+      </c>
+      <c r="Z25">
+        <v>0.42</v>
+      </c>
       <c r="AC25" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3150,22 +3579,25 @@
       <c r="AG25">
         <v>-2.392189502716064</v>
       </c>
-      <c r="AH25" t="s">
-        <v>225</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300486</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>16.39</v>
@@ -3183,7 +3615,7 @@
         <v>140353.31</v>
       </c>
       <c r="J26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K26">
         <v>4</v>
@@ -3224,8 +3656,23 @@
       <c r="W26">
         <v>0.23</v>
       </c>
+      <c r="X26">
+        <v>2.63</v>
+      </c>
+      <c r="Y26">
+        <v>24.35</v>
+      </c>
+      <c r="Z26">
+        <v>8.51</v>
+      </c>
       <c r="AC26" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3233,22 +3680,25 @@
       <c r="AG26">
         <v>2.564311504364014</v>
       </c>
-      <c r="AH26" t="s">
-        <v>225</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300499</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>20.02</v>
@@ -3266,7 +3716,7 @@
         <v>210246.32</v>
       </c>
       <c r="J27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3307,8 +3757,23 @@
       <c r="W27">
         <v>1.18</v>
       </c>
+      <c r="X27">
+        <v>6.66</v>
+      </c>
+      <c r="Y27">
+        <v>36.04</v>
+      </c>
+      <c r="Z27">
+        <v>16.48</v>
+      </c>
       <c r="AC27" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3316,22 +3781,25 @@
       <c r="AG27">
         <v>7.807143688201904</v>
       </c>
-      <c r="AH27" t="s">
-        <v>225</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300539</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>8.34</v>
@@ -3349,7 +3817,7 @@
         <v>127751.74</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K28">
         <v>8</v>
@@ -3390,8 +3858,23 @@
       <c r="W28">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X28">
+        <v>7.58</v>
+      </c>
+      <c r="Y28">
+        <v>37</v>
+      </c>
+      <c r="Z28">
+        <v>12.12</v>
+      </c>
       <c r="AC28" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3399,22 +3882,25 @@
       <c r="AG28">
         <v>3.038578271865845</v>
       </c>
-      <c r="AH28" t="s">
-        <v>225</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300547</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>8.91</v>
@@ -3432,7 +3918,7 @@
         <v>311218.56</v>
       </c>
       <c r="J29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3473,8 +3959,23 @@
       <c r="W29">
         <v>-2.54</v>
       </c>
+      <c r="X29">
+        <v>2.14</v>
+      </c>
+      <c r="Y29">
+        <v>58.58</v>
+      </c>
+      <c r="Z29">
+        <v>10.95</v>
+      </c>
       <c r="AC29" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3482,22 +3983,25 @@
       <c r="AG29">
         <v>19.78719711303711</v>
       </c>
-      <c r="AH29" t="s">
-        <v>225</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300548</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>7.84</v>
@@ -3515,7 +4019,7 @@
         <v>266611.89</v>
       </c>
       <c r="J30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K30">
         <v>25</v>
@@ -3556,8 +4060,23 @@
       <c r="W30">
         <v>0.02</v>
       </c>
+      <c r="X30">
+        <v>1.11</v>
+      </c>
+      <c r="Y30">
+        <v>105.26</v>
+      </c>
+      <c r="Z30">
+        <v>6.15</v>
+      </c>
       <c r="AC30" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3565,22 +4084,25 @@
       <c r="AG30">
         <v>-3.668755292892456</v>
       </c>
-      <c r="AH30" t="s">
-        <v>225</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300579</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>1.39</v>
@@ -3598,7 +4120,7 @@
         <v>99197.25</v>
       </c>
       <c r="J31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -3639,8 +4161,23 @@
       <c r="W31">
         <v>0.1</v>
       </c>
+      <c r="X31">
+        <v>-1.94</v>
+      </c>
+      <c r="Y31">
+        <v>41.41</v>
+      </c>
+      <c r="Z31">
+        <v>1.59</v>
+      </c>
       <c r="AC31" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3648,22 +4185,25 @@
       <c r="AG31">
         <v>3.429433584213257</v>
       </c>
-      <c r="AH31" t="s">
-        <v>225</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300584</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-1.09</v>
@@ -3681,7 +4221,7 @@
         <v>130197.86</v>
       </c>
       <c r="J32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -3722,8 +4262,23 @@
       <c r="W32">
         <v>0.96</v>
       </c>
+      <c r="X32">
+        <v>-3.25</v>
+      </c>
+      <c r="Y32">
+        <v>62</v>
+      </c>
+      <c r="Z32">
+        <v>5.08</v>
+      </c>
       <c r="AC32" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3731,22 +4286,25 @@
       <c r="AG32">
         <v>4.773662090301514</v>
       </c>
-      <c r="AH32" t="s">
-        <v>225</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300593</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>0.5</v>
@@ -3764,7 +4322,7 @@
         <v>106175.48</v>
       </c>
       <c r="J33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3805,8 +4363,23 @@
       <c r="W33">
         <v>-0.43</v>
       </c>
+      <c r="X33">
+        <v>1.5</v>
+      </c>
+      <c r="Y33">
+        <v>20.53</v>
+      </c>
+      <c r="Z33">
+        <v>2.75</v>
+      </c>
       <c r="AC33" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3814,22 +4387,25 @@
       <c r="AG33">
         <v>5.482636451721191</v>
       </c>
-      <c r="AH33" t="s">
-        <v>225</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300600</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>6.33</v>
@@ -3847,7 +4423,7 @@
         <v>107245.38</v>
       </c>
       <c r="J34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K34">
         <v>14</v>
@@ -3888,8 +4464,23 @@
       <c r="W34">
         <v>0.93</v>
       </c>
+      <c r="X34">
+        <v>-4.26</v>
+      </c>
+      <c r="Y34">
+        <v>23.06</v>
+      </c>
+      <c r="Z34">
+        <v>0.26</v>
+      </c>
       <c r="AC34" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3897,22 +4488,25 @@
       <c r="AG34">
         <v>3.416789293289185</v>
       </c>
-      <c r="AH34" t="s">
-        <v>225</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300602</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>15.1</v>
@@ -3930,7 +4524,7 @@
         <v>244165.79</v>
       </c>
       <c r="J35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3971,8 +4565,23 @@
       <c r="W35">
         <v>1.15</v>
       </c>
+      <c r="X35">
+        <v>1.85</v>
+      </c>
+      <c r="Y35">
+        <v>36.33</v>
+      </c>
+      <c r="Z35">
+        <v>5</v>
+      </c>
       <c r="AC35" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3980,22 +4589,25 @@
       <c r="AG35">
         <v>4.045498847961426</v>
       </c>
-      <c r="AH35" t="s">
-        <v>225</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300609</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>13.41</v>
@@ -4013,7 +4625,7 @@
         <v>109765.67</v>
       </c>
       <c r="J36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K36">
         <v>14</v>
@@ -4054,8 +4666,23 @@
       <c r="W36">
         <v>-1.4</v>
       </c>
+      <c r="X36">
+        <v>-1.52</v>
+      </c>
+      <c r="Y36">
+        <v>60.6</v>
+      </c>
+      <c r="Z36">
+        <v>1.2</v>
+      </c>
       <c r="AC36" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4063,22 +4690,25 @@
       <c r="AG36">
         <v>7.584691524505615</v>
       </c>
-      <c r="AH36" t="s">
-        <v>225</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300620</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>18.29</v>
@@ -4096,7 +4726,7 @@
         <v>496005.58</v>
       </c>
       <c r="J37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K37">
         <v>5</v>
@@ -4137,8 +4767,23 @@
       <c r="W37">
         <v>0.8100000000000001</v>
       </c>
+      <c r="X37">
+        <v>2.68</v>
+      </c>
+      <c r="Y37">
+        <v>108</v>
+      </c>
+      <c r="Z37">
+        <v>11.34</v>
+      </c>
       <c r="AC37" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4146,22 +4791,25 @@
       <c r="AG37">
         <v>4.83039379119873</v>
       </c>
-      <c r="AH37" t="s">
-        <v>225</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300637</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>6.23</v>
@@ -4179,7 +4827,7 @@
         <v>112634.61</v>
       </c>
       <c r="J38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K38">
         <v>4</v>
@@ -4220,8 +4868,23 @@
       <c r="W38">
         <v>-0.3</v>
       </c>
+      <c r="X38">
+        <v>-5.98</v>
+      </c>
+      <c r="Y38">
+        <v>16.3</v>
+      </c>
+      <c r="Z38">
+        <v>-2.51</v>
+      </c>
       <c r="AC38" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4229,22 +4892,25 @@
       <c r="AG38">
         <v>-6.035038471221924</v>
       </c>
-      <c r="AH38" t="s">
-        <v>225</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300644</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>5.77</v>
@@ -4262,7 +4928,7 @@
         <v>81603.23</v>
       </c>
       <c r="J39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K39">
         <v>10</v>
@@ -4303,8 +4969,23 @@
       <c r="W39">
         <v>0.32</v>
       </c>
+      <c r="X39">
+        <v>-5.24</v>
+      </c>
+      <c r="Y39">
+        <v>40.51</v>
+      </c>
+      <c r="Z39">
+        <v>-1.72</v>
+      </c>
       <c r="AC39" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4312,22 +4993,25 @@
       <c r="AG39">
         <v>35.61600494384766</v>
       </c>
-      <c r="AH39" t="s">
-        <v>225</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300648</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>2.11</v>
@@ -4345,7 +5029,7 @@
         <v>37554.52</v>
       </c>
       <c r="J40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K40">
         <v>13</v>
@@ -4386,8 +5070,23 @@
       <c r="W40">
         <v>0.05</v>
       </c>
+      <c r="X40">
+        <v>2.61</v>
+      </c>
+      <c r="Y40">
+        <v>62.8</v>
+      </c>
+      <c r="Z40">
+        <v>6.46</v>
+      </c>
       <c r="AC40" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4395,22 +5094,25 @@
       <c r="AG40">
         <v>1.948685526847839</v>
       </c>
-      <c r="AH40" t="s">
-        <v>225</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300671</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>1.02</v>
@@ -4428,7 +5130,7 @@
         <v>80999.25999999999</v>
       </c>
       <c r="J41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K41">
         <v>5</v>
@@ -4469,8 +5171,23 @@
       <c r="W41">
         <v>0.04</v>
       </c>
+      <c r="X41">
+        <v>3.64</v>
+      </c>
+      <c r="Y41">
+        <v>43.38</v>
+      </c>
+      <c r="Z41">
+        <v>4.66</v>
+      </c>
       <c r="AC41" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4478,22 +5195,25 @@
       <c r="AG41">
         <v>0.2204186469316483</v>
       </c>
-      <c r="AH41" t="s">
-        <v>225</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300672</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>0.06</v>
@@ -4511,7 +5231,7 @@
         <v>119484.72</v>
       </c>
       <c r="J42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -4552,8 +5272,23 @@
       <c r="W42">
         <v>-0.24</v>
       </c>
+      <c r="X42">
+        <v>-1.4</v>
+      </c>
+      <c r="Y42">
+        <v>97</v>
+      </c>
+      <c r="Z42">
+        <v>-0.24</v>
+      </c>
       <c r="AC42" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4561,22 +5296,25 @@
       <c r="AG42">
         <v>5.607212066650391</v>
       </c>
-      <c r="AH42" t="s">
-        <v>225</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300683</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>2.87</v>
@@ -4594,7 +5332,7 @@
         <v>81713.13</v>
       </c>
       <c r="J43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K43">
         <v>21</v>
@@ -4635,8 +5373,23 @@
       <c r="W43">
         <v>0.5</v>
       </c>
+      <c r="X43">
+        <v>-4.58</v>
+      </c>
+      <c r="Y43">
+        <v>60.95</v>
+      </c>
+      <c r="Z43">
+        <v>7.04</v>
+      </c>
       <c r="AC43" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4644,22 +5397,25 @@
       <c r="AG43">
         <v>4.803566455841064</v>
       </c>
-      <c r="AH43" t="s">
-        <v>225</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300684</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>8.74</v>
@@ -4677,7 +5433,7 @@
         <v>165480.55</v>
       </c>
       <c r="J44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K44">
         <v>14</v>
@@ -4718,8 +5474,23 @@
       <c r="W44">
         <v>0.58</v>
       </c>
+      <c r="X44">
+        <v>-2.53</v>
+      </c>
+      <c r="Y44">
+        <v>38.13</v>
+      </c>
+      <c r="Z44">
+        <v>2.8</v>
+      </c>
       <c r="AC44" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4727,22 +5498,25 @@
       <c r="AG44">
         <v>2.799487829208374</v>
       </c>
-      <c r="AH44" t="s">
-        <v>225</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300690</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>6.98</v>
@@ -4760,7 +5534,7 @@
         <v>183262.84</v>
       </c>
       <c r="J45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4801,8 +5575,23 @@
       <c r="W45">
         <v>1.38</v>
       </c>
+      <c r="X45">
+        <v>-4.64</v>
+      </c>
+      <c r="Y45">
+        <v>40</v>
+      </c>
+      <c r="Z45">
+        <v>-3.33</v>
+      </c>
       <c r="AC45" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4810,22 +5599,25 @@
       <c r="AG45">
         <v>0.9296112060546875</v>
       </c>
-      <c r="AH45" t="s">
-        <v>225</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300703</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-1.08</v>
@@ -4843,7 +5635,7 @@
         <v>53337.59</v>
       </c>
       <c r="J46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K46">
         <v>7</v>
@@ -4884,8 +5676,23 @@
       <c r="W46">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X46">
+        <v>4.2</v>
+      </c>
+      <c r="Y46">
+        <v>37.08</v>
+      </c>
+      <c r="Z46">
+        <v>9.609999999999999</v>
+      </c>
       <c r="AC46" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4893,22 +5700,25 @@
       <c r="AG46">
         <v>3.735324859619141</v>
       </c>
-      <c r="AH46" t="s">
-        <v>225</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300706</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>6.77</v>
@@ -4926,7 +5736,7 @@
         <v>172991.92</v>
       </c>
       <c r="J47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K47">
         <v>17</v>
@@ -4967,8 +5777,23 @@
       <c r="W47">
         <v>0.77</v>
       </c>
+      <c r="X47">
+        <v>-6.03</v>
+      </c>
+      <c r="Y47">
+        <v>50.95</v>
+      </c>
+      <c r="Z47">
+        <v>-1.79</v>
+      </c>
       <c r="AC47" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4976,22 +5801,25 @@
       <c r="AG47">
         <v>2.593207120895386</v>
       </c>
-      <c r="AH47" t="s">
-        <v>225</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300725</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>4.33</v>
@@ -5009,7 +5837,7 @@
         <v>117311.73</v>
       </c>
       <c r="J48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K48">
         <v>15</v>
@@ -5050,8 +5878,23 @@
       <c r="W48">
         <v>-0.58</v>
       </c>
+      <c r="X48">
+        <v>-3.43</v>
+      </c>
+      <c r="Y48">
+        <v>50.25</v>
+      </c>
+      <c r="Z48">
+        <v>0.66</v>
+      </c>
       <c r="AC48" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5059,22 +5902,25 @@
       <c r="AG48">
         <v>-0.3835567831993103</v>
       </c>
-      <c r="AH48" t="s">
-        <v>225</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300727</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>19.99</v>
@@ -5092,7 +5938,7 @@
         <v>112187.26</v>
       </c>
       <c r="J49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -5133,8 +5979,23 @@
       <c r="W49">
         <v>-0.11</v>
       </c>
+      <c r="X49">
+        <v>-5.41</v>
+      </c>
+      <c r="Y49">
+        <v>43.58</v>
+      </c>
+      <c r="Z49">
+        <v>-0.14</v>
+      </c>
       <c r="AC49" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -5142,22 +6003,25 @@
       <c r="AG49">
         <v>27.99421310424805</v>
       </c>
-      <c r="AH49" t="s">
-        <v>225</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300730</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>19.99</v>
@@ -5175,7 +6039,7 @@
         <v>195371.97</v>
       </c>
       <c r="J50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5216,8 +6080,23 @@
       <c r="W50">
         <v>-0.48</v>
       </c>
+      <c r="X50">
+        <v>-5.32</v>
+      </c>
+      <c r="Y50">
+        <v>22.27</v>
+      </c>
+      <c r="Z50">
+        <v>4.8</v>
+      </c>
       <c r="AC50" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>1</v>
@@ -5225,22 +6104,25 @@
       <c r="AG50">
         <v>8.986594200134277</v>
       </c>
-      <c r="AH50" t="s">
-        <v>225</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300731</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>15.06</v>
@@ -5258,7 +6140,7 @@
         <v>176737.38</v>
       </c>
       <c r="J51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K51">
         <v>12</v>
@@ -5299,8 +6181,23 @@
       <c r="W51">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X51">
+        <v>-5.83</v>
+      </c>
+      <c r="Y51">
+        <v>58</v>
+      </c>
+      <c r="Z51">
+        <v>-2.52</v>
+      </c>
       <c r="AC51" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5308,22 +6205,25 @@
       <c r="AG51">
         <v>-0.9211360216140747</v>
       </c>
-      <c r="AH51" t="s">
-        <v>225</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300767</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>20</v>
@@ -5341,7 +6241,7 @@
         <v>81317.03999999999</v>
       </c>
       <c r="J52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5382,8 +6282,23 @@
       <c r="W52">
         <v>2.2</v>
       </c>
+      <c r="X52">
+        <v>7.25</v>
+      </c>
+      <c r="Y52">
+        <v>21.65</v>
+      </c>
+      <c r="Z52">
+        <v>9.01</v>
+      </c>
       <c r="AC52" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
       </c>
       <c r="AF52">
         <v>1</v>
@@ -5391,22 +6306,25 @@
       <c r="AG52">
         <v>16.26198959350586</v>
       </c>
-      <c r="AH52" t="s">
-        <v>226</v>
+      <c r="AH52">
+        <v>1</v>
+      </c>
+      <c r="AI52">
+        <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300803</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>14.64</v>
@@ -5424,7 +6342,7 @@
         <v>1579376.33</v>
       </c>
       <c r="J53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K53">
         <v>5</v>
@@ -5465,8 +6383,23 @@
       <c r="W53">
         <v>-1.1</v>
       </c>
+      <c r="X53">
+        <v>0.47</v>
+      </c>
+      <c r="Y53">
+        <v>129.09</v>
+      </c>
+      <c r="Z53">
+        <v>2.48</v>
+      </c>
       <c r="AC53" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>1</v>
@@ -5474,22 +6407,25 @@
       <c r="AG53">
         <v>2.407694339752197</v>
       </c>
-      <c r="AH53" t="s">
-        <v>225</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300806</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>9.93</v>
@@ -5507,7 +6443,7 @@
         <v>106268.58</v>
       </c>
       <c r="J54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5548,8 +6484,23 @@
       <c r="W54">
         <v>0.6899999999999999</v>
       </c>
+      <c r="X54">
+        <v>-3</v>
+      </c>
+      <c r="Y54">
+        <v>24.18</v>
+      </c>
+      <c r="Z54">
+        <v>0.67</v>
+      </c>
       <c r="AC54" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5557,22 +6508,25 @@
       <c r="AG54">
         <v>-0.1506736576557159</v>
       </c>
-      <c r="AH54" t="s">
-        <v>225</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300811</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>17.23</v>
@@ -5590,7 +6544,7 @@
         <v>221875.15</v>
       </c>
       <c r="J55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5631,8 +6585,23 @@
       <c r="W55">
         <v>-0.31</v>
       </c>
+      <c r="X55">
+        <v>-2.51</v>
+      </c>
+      <c r="Y55">
+        <v>74.88</v>
+      </c>
+      <c r="Z55">
+        <v>-1.73</v>
+      </c>
       <c r="AC55" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5640,22 +6609,25 @@
       <c r="AG55">
         <v>-20.5179386138916</v>
       </c>
-      <c r="AH55" t="s">
-        <v>225</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300814</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>10.37</v>
@@ -5673,7 +6645,7 @@
         <v>166789.21</v>
       </c>
       <c r="J56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5714,8 +6686,23 @@
       <c r="W56">
         <v>-1.01</v>
       </c>
+      <c r="X56">
+        <v>-3.06</v>
+      </c>
+      <c r="Y56">
+        <v>50.86</v>
+      </c>
+      <c r="Z56">
+        <v>0.41</v>
+      </c>
       <c r="AC56" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5723,22 +6710,25 @@
       <c r="AG56">
         <v>-3.565524816513062</v>
       </c>
-      <c r="AH56" t="s">
-        <v>225</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>300815</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>1.64</v>
@@ -5756,7 +6746,7 @@
         <v>160360.65</v>
       </c>
       <c r="J57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -5797,8 +6787,23 @@
       <c r="W57">
         <v>-0.38</v>
       </c>
+      <c r="X57">
+        <v>-6.17</v>
+      </c>
+      <c r="Y57">
+        <v>30.55</v>
+      </c>
+      <c r="Z57">
+        <v>-1.39</v>
+      </c>
       <c r="AC57" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5806,22 +6811,25 @@
       <c r="AG57">
         <v>4.317394733428955</v>
       </c>
-      <c r="AH57" t="s">
-        <v>225</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>300816</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-0.7</v>
@@ -5839,7 +6847,7 @@
         <v>35355.18</v>
       </c>
       <c r="J58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -5880,8 +6888,23 @@
       <c r="W58">
         <v>0.12</v>
       </c>
+      <c r="X58">
+        <v>-2.98</v>
+      </c>
+      <c r="Y58">
+        <v>42.26</v>
+      </c>
+      <c r="Z58">
+        <v>-0.09</v>
+      </c>
       <c r="AC58" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5889,22 +6912,25 @@
       <c r="AG58">
         <v>-1.153719425201416</v>
       </c>
-      <c r="AH58" t="s">
-        <v>225</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>300835</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>10.31</v>
@@ -5922,7 +6948,7 @@
         <v>97179.03</v>
       </c>
       <c r="J59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K59">
         <v>20</v>
@@ -5963,8 +6989,23 @@
       <c r="W59">
         <v>0.47</v>
       </c>
+      <c r="X59">
+        <v>-2.4</v>
+      </c>
+      <c r="Y59">
+        <v>67.28</v>
+      </c>
+      <c r="Z59">
+        <v>1.55</v>
+      </c>
       <c r="AC59" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5972,22 +7013,25 @@
       <c r="AG59">
         <v>0.6607550382614136</v>
       </c>
-      <c r="AH59" t="s">
-        <v>225</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>300843</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>15.76</v>
@@ -6005,7 +7049,7 @@
         <v>134275.93</v>
       </c>
       <c r="J60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -6046,8 +7090,23 @@
       <c r="W60">
         <v>2.1</v>
       </c>
+      <c r="X60">
+        <v>-5.19</v>
+      </c>
+      <c r="Y60">
+        <v>50.45</v>
+      </c>
+      <c r="Z60">
+        <v>-2.98</v>
+      </c>
       <c r="AC60" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -6055,22 +7114,25 @@
       <c r="AG60">
         <v>1.370912790298462</v>
       </c>
-      <c r="AH60" t="s">
-        <v>225</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>300870</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>0.2</v>
@@ -6088,7 +7150,7 @@
         <v>274202.16</v>
       </c>
       <c r="J61" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K61">
         <v>4</v>
@@ -6129,8 +7191,23 @@
       <c r="W61">
         <v>-0.32</v>
       </c>
+      <c r="X61">
+        <v>3.52</v>
+      </c>
+      <c r="Y61">
+        <v>259.99</v>
+      </c>
+      <c r="Z61">
+        <v>4.41</v>
+      </c>
       <c r="AC61" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6138,22 +7215,25 @@
       <c r="AG61">
         <v>2.582615613937378</v>
       </c>
-      <c r="AH61" t="s">
-        <v>225</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>300902</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>1.51</v>
@@ -6171,7 +7251,7 @@
         <v>50747.72</v>
       </c>
       <c r="J62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K62">
         <v>4</v>
@@ -6212,8 +7292,23 @@
       <c r="W62">
         <v>1.88</v>
       </c>
+      <c r="X62">
+        <v>5.07</v>
+      </c>
+      <c r="Y62">
+        <v>31.88</v>
+      </c>
+      <c r="Z62">
+        <v>7.7</v>
+      </c>
       <c r="AC62" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6221,22 +7316,25 @@
       <c r="AG62">
         <v>0.3254498839378357</v>
       </c>
-      <c r="AH62" t="s">
-        <v>225</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>300907</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-2.15</v>
@@ -6254,7 +7352,7 @@
         <v>37270.22</v>
       </c>
       <c r="J63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6295,8 +7393,23 @@
       <c r="W63">
         <v>0.54</v>
       </c>
+      <c r="X63">
+        <v>12.37</v>
+      </c>
+      <c r="Y63">
+        <v>44.79</v>
+      </c>
+      <c r="Z63">
+        <v>17.37</v>
+      </c>
       <c r="AC63" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6304,22 +7417,25 @@
       <c r="AG63">
         <v>2.154201507568359</v>
       </c>
-      <c r="AH63" t="s">
-        <v>225</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>300969</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>0.54</v>
@@ -6337,7 +7453,7 @@
         <v>39129.59</v>
       </c>
       <c r="J64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K64">
         <v>4</v>
@@ -6378,8 +7494,23 @@
       <c r="W64">
         <v>0.74</v>
       </c>
+      <c r="X64">
+        <v>2.2</v>
+      </c>
+      <c r="Y64">
+        <v>96</v>
+      </c>
+      <c r="Z64">
+        <v>3.88</v>
+      </c>
       <c r="AC64" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6387,22 +7518,25 @@
       <c r="AG64">
         <v>0.3468233048915863</v>
       </c>
-      <c r="AH64" t="s">
-        <v>225</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>300990</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>10.29</v>
@@ -6420,7 +7554,7 @@
         <v>66512.03999999999</v>
       </c>
       <c r="J65" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -6461,8 +7595,23 @@
       <c r="W65">
         <v>-0.45</v>
       </c>
+      <c r="X65">
+        <v>1.78</v>
+      </c>
+      <c r="Y65">
+        <v>79</v>
+      </c>
+      <c r="Z65">
+        <v>1.99</v>
+      </c>
       <c r="AC65" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6470,22 +7619,25 @@
       <c r="AG65">
         <v>-1.750602960586548</v>
       </c>
-      <c r="AH65" t="s">
-        <v>225</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301005</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-2.01</v>
@@ -6503,7 +7655,7 @@
         <v>106205.12</v>
       </c>
       <c r="J66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K66">
         <v>10</v>
@@ -6544,8 +7696,23 @@
       <c r="W66">
         <v>-0.92</v>
       </c>
+      <c r="X66">
+        <v>-4.71</v>
+      </c>
+      <c r="Y66">
+        <v>52.58</v>
+      </c>
+      <c r="Z66">
+        <v>-0.98</v>
+      </c>
       <c r="AC66" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6553,22 +7720,25 @@
       <c r="AG66">
         <v>-4.203614234924316</v>
       </c>
-      <c r="AH66" t="s">
-        <v>225</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301007</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>3.72</v>
@@ -6586,7 +7756,7 @@
         <v>64463.55</v>
       </c>
       <c r="J67" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K67">
         <v>4</v>
@@ -6627,8 +7797,23 @@
       <c r="W67">
         <v>-0.31</v>
       </c>
+      <c r="X67">
+        <v>5.95</v>
+      </c>
+      <c r="Y67">
+        <v>46.33</v>
+      </c>
+      <c r="Z67">
+        <v>6.51</v>
+      </c>
       <c r="AC67" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6636,22 +7821,25 @@
       <c r="AG67">
         <v>3.773276090621948</v>
       </c>
-      <c r="AH67" t="s">
-        <v>225</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301018</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>14.49</v>
@@ -6669,7 +7857,7 @@
         <v>163010.98</v>
       </c>
       <c r="J68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K68">
         <v>4</v>
@@ -6710,8 +7898,23 @@
       <c r="W68">
         <v>-0.15</v>
       </c>
+      <c r="X68">
+        <v>-7.21</v>
+      </c>
+      <c r="Y68">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="Z68">
+        <v>-2.45</v>
+      </c>
       <c r="AC68" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6719,22 +7922,25 @@
       <c r="AG68">
         <v>10.34267425537109</v>
       </c>
-      <c r="AH68" t="s">
-        <v>225</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301021</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>2.41</v>
@@ -6752,7 +7958,7 @@
         <v>56160.21</v>
       </c>
       <c r="J69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K69">
         <v>5</v>
@@ -6793,8 +7999,23 @@
       <c r="W69">
         <v>0.38</v>
       </c>
+      <c r="X69">
+        <v>-2.98</v>
+      </c>
+      <c r="Y69">
+        <v>37.9</v>
+      </c>
+      <c r="Z69">
+        <v>0.03</v>
+      </c>
       <c r="AC69" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6802,22 +8023,25 @@
       <c r="AG69">
         <v>6.030114650726318</v>
       </c>
-      <c r="AH69" t="s">
-        <v>225</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301022</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-1.88</v>
@@ -6835,7 +8059,7 @@
         <v>38580.09</v>
       </c>
       <c r="J70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K70">
         <v>9</v>
@@ -6876,8 +8100,23 @@
       <c r="W70">
         <v>-0.99</v>
       </c>
+      <c r="X70">
+        <v>0.35</v>
+      </c>
+      <c r="Y70">
+        <v>46.73</v>
+      </c>
+      <c r="Z70">
+        <v>2.82</v>
+      </c>
       <c r="AC70" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6885,22 +8124,25 @@
       <c r="AG70">
         <v>3.092289686203003</v>
       </c>
-      <c r="AH70" t="s">
-        <v>225</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301038</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-0.28</v>
@@ -6918,7 +8160,7 @@
         <v>90296.33</v>
       </c>
       <c r="J71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K71">
         <v>15</v>
@@ -6959,8 +8201,23 @@
       <c r="W71">
         <v>-0.36</v>
       </c>
+      <c r="X71">
+        <v>-2.85</v>
+      </c>
+      <c r="Y71">
+        <v>37.45</v>
+      </c>
+      <c r="Z71">
+        <v>3.6</v>
+      </c>
       <c r="AC71" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6968,22 +8225,25 @@
       <c r="AG71">
         <v>2.66663384437561</v>
       </c>
-      <c r="AH71" t="s">
-        <v>225</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301069</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>6.27</v>
@@ -7001,7 +8261,7 @@
         <v>133190.81</v>
       </c>
       <c r="J72" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K72">
         <v>9</v>
@@ -7042,8 +8302,23 @@
       <c r="W72">
         <v>-0.15</v>
       </c>
+      <c r="X72">
+        <v>-5.43</v>
+      </c>
+      <c r="Y72">
+        <v>25.06</v>
+      </c>
+      <c r="Z72">
+        <v>-2.07</v>
+      </c>
       <c r="AC72" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -7051,22 +8326,25 @@
       <c r="AG72">
         <v>1.852599501609802</v>
       </c>
-      <c r="AH72" t="s">
-        <v>225</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301076</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>10.1</v>
@@ -7084,7 +8362,7 @@
         <v>216080.61</v>
       </c>
       <c r="J73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K73">
         <v>9</v>
@@ -7125,8 +8403,23 @@
       <c r="W73">
         <v>-0.83</v>
       </c>
+      <c r="X73">
+        <v>-7.39</v>
+      </c>
+      <c r="Y73">
+        <v>61.58</v>
+      </c>
+      <c r="Z73">
+        <v>-1.94</v>
+      </c>
       <c r="AC73" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>1</v>
@@ -7134,22 +8427,25 @@
       <c r="AG73">
         <v>-17.56035423278809</v>
       </c>
-      <c r="AH73" t="s">
-        <v>225</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301086</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>18.19</v>
@@ -7167,7 +8463,7 @@
         <v>55325.96</v>
       </c>
       <c r="J74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -7208,8 +8504,23 @@
       <c r="W74">
         <v>0.88</v>
       </c>
+      <c r="X74">
+        <v>2.39</v>
+      </c>
+      <c r="Y74">
+        <v>72.5</v>
+      </c>
+      <c r="Z74">
+        <v>8.210000000000001</v>
+      </c>
       <c r="AC74" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7217,22 +8528,25 @@
       <c r="AG74">
         <v>6.465316772460938</v>
       </c>
-      <c r="AH74" t="s">
-        <v>225</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301095</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>13.86</v>
@@ -7250,7 +8564,7 @@
         <v>161490.53</v>
       </c>
       <c r="J75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K75">
         <v>14</v>
@@ -7291,8 +8605,23 @@
       <c r="W75">
         <v>-0.12</v>
       </c>
+      <c r="X75">
+        <v>-6.18</v>
+      </c>
+      <c r="Y75">
+        <v>93.88</v>
+      </c>
+      <c r="Z75">
+        <v>-1.05</v>
+      </c>
       <c r="AC75" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7300,22 +8629,25 @@
       <c r="AG75">
         <v>10.12823677062988</v>
       </c>
-      <c r="AH75" t="s">
-        <v>225</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301120</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>3.51</v>
@@ -7333,7 +8665,7 @@
         <v>65720.8</v>
       </c>
       <c r="J76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K76">
         <v>10</v>
@@ -7374,8 +8706,23 @@
       <c r="W76">
         <v>-0.58</v>
       </c>
+      <c r="X76">
+        <v>7.09</v>
+      </c>
+      <c r="Y76">
+        <v>18.33</v>
+      </c>
+      <c r="Z76">
+        <v>17.12</v>
+      </c>
       <c r="AC76" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7383,22 +8730,25 @@
       <c r="AG76">
         <v>-1.467463731765747</v>
       </c>
-      <c r="AH76" t="s">
-        <v>225</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301123</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>19.99</v>
@@ -7416,7 +8766,7 @@
         <v>108314.53</v>
       </c>
       <c r="J77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K77">
         <v>10</v>
@@ -7457,8 +8807,23 @@
       <c r="W77">
         <v>0.25</v>
       </c>
+      <c r="X77">
+        <v>3.45</v>
+      </c>
+      <c r="Y77">
+        <v>49.09</v>
+      </c>
+      <c r="Z77">
+        <v>3.81</v>
+      </c>
       <c r="AC77" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>1</v>
@@ -7466,22 +8831,25 @@
       <c r="AG77">
         <v>6.078573703765869</v>
       </c>
-      <c r="AH77" t="s">
-        <v>226</v>
+      <c r="AH77">
+        <v>1</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301128</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>20</v>
@@ -7499,7 +8867,7 @@
         <v>104120.04</v>
       </c>
       <c r="J78" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K78">
         <v>4</v>
@@ -7540,8 +8908,23 @@
       <c r="W78">
         <v>0.63</v>
       </c>
+      <c r="X78">
+        <v>9.73</v>
+      </c>
+      <c r="Y78">
+        <v>105</v>
+      </c>
+      <c r="Z78">
+        <v>17.59</v>
+      </c>
       <c r="AC78" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD78">
+        <v>1</v>
+      </c>
+      <c r="AE78">
+        <v>1</v>
       </c>
       <c r="AF78">
         <v>1</v>
@@ -7549,22 +8932,25 @@
       <c r="AG78">
         <v>5.227636814117432</v>
       </c>
-      <c r="AH78" t="s">
-        <v>226</v>
+      <c r="AH78">
+        <v>1</v>
+      </c>
+      <c r="AI78">
+        <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301132</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>0.8</v>
@@ -7582,7 +8968,7 @@
         <v>69792.28</v>
       </c>
       <c r="J79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K79">
         <v>6</v>
@@ -7623,8 +9009,23 @@
       <c r="W79">
         <v>0.32</v>
       </c>
+      <c r="X79">
+        <v>-0.86</v>
+      </c>
+      <c r="Y79">
+        <v>43.41</v>
+      </c>
+      <c r="Z79">
+        <v>1.09</v>
+      </c>
       <c r="AC79" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7632,22 +9033,25 @@
       <c r="AG79">
         <v>6.023716926574707</v>
       </c>
-      <c r="AH79" t="s">
-        <v>225</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301150</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>-2.14</v>
@@ -7665,7 +9069,7 @@
         <v>52503.69</v>
       </c>
       <c r="J80" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K80">
         <v>4</v>
@@ -7706,8 +9110,23 @@
       <c r="W80">
         <v>-0.52</v>
       </c>
+      <c r="X80">
+        <v>-2.51</v>
+      </c>
+      <c r="Y80">
+        <v>30.96</v>
+      </c>
+      <c r="Z80">
+        <v>-0.48</v>
+      </c>
       <c r="AC80" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7715,22 +9134,25 @@
       <c r="AG80">
         <v>2.184128284454346</v>
       </c>
-      <c r="AH80" t="s">
-        <v>225</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>301161</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>17.3</v>
@@ -7748,7 +9170,7 @@
         <v>74646.06</v>
       </c>
       <c r="J81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K81">
         <v>11</v>
@@ -7789,8 +9211,23 @@
       <c r="W81">
         <v>-2.14</v>
       </c>
+      <c r="X81">
+        <v>1.12</v>
+      </c>
+      <c r="Y81">
+        <v>47.45</v>
+      </c>
+      <c r="Z81">
+        <v>4.58</v>
+      </c>
       <c r="AC81" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7798,22 +9235,25 @@
       <c r="AG81">
         <v>9.556394577026367</v>
       </c>
-      <c r="AH81" t="s">
-        <v>225</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>301165</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>20</v>
@@ -7831,7 +9271,7 @@
         <v>157696.92</v>
       </c>
       <c r="J82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K82">
         <v>5</v>
@@ -7872,8 +9312,23 @@
       <c r="W82">
         <v>1.25</v>
       </c>
+      <c r="X82">
+        <v>2.02</v>
+      </c>
+      <c r="Y82">
+        <v>86.66</v>
+      </c>
+      <c r="Z82">
+        <v>5.88</v>
+      </c>
       <c r="AC82" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7881,22 +9336,25 @@
       <c r="AG82">
         <v>33.26161956787109</v>
       </c>
-      <c r="AH82" t="s">
-        <v>225</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>301181</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>2.99</v>
@@ -7914,7 +9372,7 @@
         <v>49934.58</v>
       </c>
       <c r="J83" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K83">
         <v>4</v>
@@ -7955,8 +9413,23 @@
       <c r="W83">
         <v>-1.06</v>
       </c>
+      <c r="X83">
+        <v>-6.12</v>
+      </c>
+      <c r="Y83">
+        <v>34.3</v>
+      </c>
+      <c r="Z83">
+        <v>-1.38</v>
+      </c>
       <c r="AC83" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7964,22 +9437,25 @@
       <c r="AG83">
         <v>1.53418505191803</v>
       </c>
-      <c r="AH83" t="s">
-        <v>225</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>301196</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>-4.86</v>
@@ -7997,7 +9473,7 @@
         <v>91272.64</v>
       </c>
       <c r="J84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K84">
         <v>4</v>
@@ -8038,8 +9514,23 @@
       <c r="W84">
         <v>0.11</v>
       </c>
+      <c r="X84">
+        <v>-3.18</v>
+      </c>
+      <c r="Y84">
+        <v>105.76</v>
+      </c>
+      <c r="Z84">
+        <v>4.49</v>
+      </c>
       <c r="AC84" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -8047,22 +9538,25 @@
       <c r="AG84">
         <v>-6.29893684387207</v>
       </c>
-      <c r="AH84" t="s">
-        <v>225</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>301217</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>3.86</v>
@@ -8080,7 +9574,7 @@
         <v>287020.83</v>
       </c>
       <c r="J85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K85">
         <v>31</v>
@@ -8121,8 +9615,23 @@
       <c r="W85">
         <v>-0.11</v>
       </c>
+      <c r="X85">
+        <v>-3.32</v>
+      </c>
+      <c r="Y85">
+        <v>32.97</v>
+      </c>
+      <c r="Z85">
+        <v>-1.26</v>
+      </c>
       <c r="AC85" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>1</v>
@@ -8130,22 +9639,25 @@
       <c r="AG85">
         <v>-4.808303833007812</v>
       </c>
-      <c r="AH85" t="s">
-        <v>225</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>301226</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>20.01</v>
@@ -8163,7 +9675,7 @@
         <v>53576.68</v>
       </c>
       <c r="J86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -8204,8 +9716,23 @@
       <c r="W86">
         <v>1.78</v>
       </c>
+      <c r="X86">
+        <v>2.88</v>
+      </c>
+      <c r="Y86">
+        <v>43.18</v>
+      </c>
+      <c r="Z86">
+        <v>7.31</v>
+      </c>
       <c r="AC86" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD86">
+        <v>1</v>
+      </c>
+      <c r="AE86">
+        <v>1</v>
       </c>
       <c r="AF86">
         <v>1</v>
@@ -8213,22 +9740,25 @@
       <c r="AG86">
         <v>19.55752754211426</v>
       </c>
-      <c r="AH86" t="s">
-        <v>226</v>
+      <c r="AH86">
+        <v>1</v>
+      </c>
+      <c r="AI86">
+        <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>301235</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>13.39</v>
@@ -8246,7 +9776,7 @@
         <v>58467.33</v>
       </c>
       <c r="J87" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -8287,8 +9817,23 @@
       <c r="W87">
         <v>1.37</v>
       </c>
+      <c r="X87">
+        <v>-0.57</v>
+      </c>
+      <c r="Y87">
+        <v>34.36</v>
+      </c>
+      <c r="Z87">
+        <v>3.25</v>
+      </c>
       <c r="AC87" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8296,22 +9841,25 @@
       <c r="AG87">
         <v>4.696990489959717</v>
       </c>
-      <c r="AH87" t="s">
-        <v>225</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>301251</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>-0.3</v>
@@ -8329,7 +9877,7 @@
         <v>109688.15</v>
       </c>
       <c r="J88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K88">
         <v>9</v>
@@ -8370,8 +9918,23 @@
       <c r="W88">
         <v>0.42</v>
       </c>
+      <c r="X88">
+        <v>-2.87</v>
+      </c>
+      <c r="Y88">
+        <v>63.1</v>
+      </c>
+      <c r="Z88">
+        <v>1.2</v>
+      </c>
       <c r="AC88" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8379,22 +9942,25 @@
       <c r="AG88">
         <v>1.627646803855896</v>
       </c>
-      <c r="AH88" t="s">
-        <v>225</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>301312</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>4.76</v>
@@ -8412,7 +9978,7 @@
         <v>43523.63</v>
       </c>
       <c r="J89" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K89">
         <v>6</v>
@@ -8453,8 +10019,23 @@
       <c r="W89">
         <v>0.37</v>
       </c>
+      <c r="X89">
+        <v>-1.18</v>
+      </c>
+      <c r="Y89">
+        <v>49.97</v>
+      </c>
+      <c r="Z89">
+        <v>1.36</v>
+      </c>
       <c r="AC89" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8462,22 +10043,25 @@
       <c r="AG89">
         <v>3.951465129852295</v>
       </c>
-      <c r="AH89" t="s">
-        <v>225</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>301323</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>-0.26</v>
@@ -8495,7 +10079,7 @@
         <v>52202.85</v>
       </c>
       <c r="J90" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K90">
         <v>5</v>
@@ -8536,8 +10120,23 @@
       <c r="W90">
         <v>0.08</v>
       </c>
+      <c r="X90">
+        <v>-2.28</v>
+      </c>
+      <c r="Y90">
+        <v>61.8</v>
+      </c>
+      <c r="Z90">
+        <v>1.2</v>
+      </c>
       <c r="AC90" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8545,22 +10144,25 @@
       <c r="AG90">
         <v>2.721041917800903</v>
       </c>
-      <c r="AH90" t="s">
-        <v>225</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>301326</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>8.529999999999999</v>
@@ -8578,7 +10180,7 @@
         <v>70171.95</v>
       </c>
       <c r="J91" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K91">
         <v>7</v>
@@ -8619,8 +10221,23 @@
       <c r="W91">
         <v>0.36</v>
       </c>
+      <c r="X91">
+        <v>-4.07</v>
+      </c>
+      <c r="Y91">
+        <v>116.5</v>
+      </c>
+      <c r="Z91">
+        <v>5.42</v>
+      </c>
       <c r="AC91" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8628,22 +10245,25 @@
       <c r="AG91">
         <v>1.306999087333679</v>
       </c>
-      <c r="AH91" t="s">
-        <v>225</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>301357</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>15.02</v>
@@ -8661,7 +10281,7 @@
         <v>199085.31</v>
       </c>
       <c r="J92" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K92">
         <v>15</v>
@@ -8702,8 +10322,23 @@
       <c r="W92">
         <v>-1.24</v>
       </c>
+      <c r="X92">
+        <v>1.24</v>
+      </c>
+      <c r="Y92">
+        <v>188</v>
+      </c>
+      <c r="Z92">
+        <v>10.02</v>
+      </c>
       <c r="AC92" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>1</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8711,22 +10346,25 @@
       <c r="AG92">
         <v>-23.20541381835938</v>
       </c>
-      <c r="AH92" t="s">
-        <v>225</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>301377</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>0.92</v>
@@ -8744,7 +10382,7 @@
         <v>49757</v>
       </c>
       <c r="J93" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K93">
         <v>6</v>
@@ -8785,8 +10423,23 @@
       <c r="W93">
         <v>0.33</v>
       </c>
+      <c r="X93">
+        <v>-4.69</v>
+      </c>
+      <c r="Y93">
+        <v>63.11</v>
+      </c>
+      <c r="Z93">
+        <v>-0.3</v>
+      </c>
       <c r="AC93" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8794,22 +10447,25 @@
       <c r="AG93">
         <v>3.051511287689209</v>
       </c>
-      <c r="AH93" t="s">
-        <v>225</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>301389</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>-1.44</v>
@@ -8827,7 +10483,7 @@
         <v>111826.44</v>
       </c>
       <c r="J94" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K94">
         <v>30</v>
@@ -8868,8 +10524,23 @@
       <c r="W94">
         <v>-0.41</v>
       </c>
+      <c r="X94">
+        <v>0.19</v>
+      </c>
+      <c r="Y94">
+        <v>53.6</v>
+      </c>
+      <c r="Z94">
+        <v>2.88</v>
+      </c>
       <c r="AC94" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8877,22 +10548,25 @@
       <c r="AG94">
         <v>6.886767864227295</v>
       </c>
-      <c r="AH94" t="s">
-        <v>225</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>301397</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>5.59</v>
@@ -8910,7 +10584,7 @@
         <v>100331.82</v>
       </c>
       <c r="J95" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K95">
         <v>8</v>
@@ -8951,8 +10625,23 @@
       <c r="W95">
         <v>1</v>
       </c>
+      <c r="X95">
+        <v>-5.62</v>
+      </c>
+      <c r="Y95">
+        <v>51.15</v>
+      </c>
+      <c r="Z95">
+        <v>4.18</v>
+      </c>
       <c r="AC95" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8960,22 +10649,25 @@
       <c r="AG95">
         <v>-2.210046291351318</v>
       </c>
-      <c r="AH95" t="s">
-        <v>225</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>301398</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>7.73</v>
@@ -8993,7 +10685,7 @@
         <v>69977.14</v>
       </c>
       <c r="J96" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -9034,8 +10726,23 @@
       <c r="W96">
         <v>0.14</v>
       </c>
+      <c r="X96">
+        <v>3.03</v>
+      </c>
+      <c r="Y96">
+        <v>57.6</v>
+      </c>
+      <c r="Z96">
+        <v>9.09</v>
+      </c>
       <c r="AC96" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>1</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -9043,22 +10750,25 @@
       <c r="AG96">
         <v>4.517944812774658</v>
       </c>
-      <c r="AH96" t="s">
-        <v>225</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>301486</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>6.2</v>
@@ -9076,7 +10786,7 @@
         <v>145865.78</v>
       </c>
       <c r="J97" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K97">
         <v>4</v>
@@ -9117,8 +10827,23 @@
       <c r="W97">
         <v>-1.46</v>
       </c>
+      <c r="X97">
+        <v>-5.17</v>
+      </c>
+      <c r="Y97">
+        <v>94</v>
+      </c>
+      <c r="Z97">
+        <v>-0.95</v>
+      </c>
       <c r="AC97" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9126,22 +10851,25 @@
       <c r="AG97">
         <v>13.62697792053223</v>
       </c>
-      <c r="AH97" t="s">
-        <v>225</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>301489</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>3.75</v>
@@ -9159,7 +10887,7 @@
         <v>141371.81</v>
       </c>
       <c r="J98" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K98">
         <v>13</v>
@@ -9200,8 +10928,23 @@
       <c r="W98">
         <v>0.55</v>
       </c>
+      <c r="X98">
+        <v>6.54</v>
+      </c>
+      <c r="Y98">
+        <v>185</v>
+      </c>
+      <c r="Z98">
+        <v>8.5</v>
+      </c>
       <c r="AC98" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD98">
+        <v>1</v>
+      </c>
+      <c r="AE98">
+        <v>1</v>
       </c>
       <c r="AF98">
         <v>1</v>
@@ -9209,22 +10952,25 @@
       <c r="AG98">
         <v>3.219592571258545</v>
       </c>
-      <c r="AH98" t="s">
-        <v>226</v>
+      <c r="AH98">
+        <v>1</v>
+      </c>
+      <c r="AI98">
+        <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>301511</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>-2.31</v>
@@ -9242,7 +10988,7 @@
         <v>230935.99</v>
       </c>
       <c r="J99" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K99">
         <v>40</v>
@@ -9283,8 +11029,23 @@
       <c r="W99">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X99">
+        <v>2.49</v>
+      </c>
+      <c r="Y99">
+        <v>41.16</v>
+      </c>
+      <c r="Z99">
+        <v>3.39</v>
+      </c>
       <c r="AC99" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -9292,22 +11053,25 @@
       <c r="AG99">
         <v>-10.487717628479</v>
       </c>
-      <c r="AH99" t="s">
-        <v>225</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>301526</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>9.869999999999999</v>
@@ -9325,7 +11089,7 @@
         <v>275780.94</v>
       </c>
       <c r="J100" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K100">
         <v>8</v>
@@ -9366,8 +11130,23 @@
       <c r="W100">
         <v>-3.1</v>
       </c>
+      <c r="X100">
+        <v>-6.28</v>
+      </c>
+      <c r="Y100">
+        <v>7.1</v>
+      </c>
+      <c r="Z100">
+        <v>1.28</v>
+      </c>
       <c r="AC100" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
       </c>
       <c r="AF100">
         <v>1</v>
@@ -9375,22 +11154,25 @@
       <c r="AG100">
         <v>16.68854904174805</v>
       </c>
-      <c r="AH100" t="s">
-        <v>225</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>301626</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>10.02</v>
@@ -9408,7 +11190,7 @@
         <v>71038.36</v>
       </c>
       <c r="J101" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -9449,8 +11231,23 @@
       <c r="W101">
         <v>1.05</v>
       </c>
+      <c r="X101">
+        <v>-1.08</v>
+      </c>
+      <c r="Y101">
+        <v>159.83</v>
+      </c>
+      <c r="Z101">
+        <v>0.57</v>
+      </c>
       <c r="AC101" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -9458,22 +11255,25 @@
       <c r="AG101">
         <v>5.090911865234375</v>
       </c>
-      <c r="AH101" t="s">
-        <v>225</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>688035</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102">
         <v>16.78</v>
@@ -9491,7 +11291,7 @@
         <v>75382.44</v>
       </c>
       <c r="J102" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -9532,8 +11332,23 @@
       <c r="W102">
         <v>1.08</v>
       </c>
+      <c r="X102">
+        <v>5.9</v>
+      </c>
+      <c r="Y102">
+        <v>65.3</v>
+      </c>
+      <c r="Z102">
+        <v>14</v>
+      </c>
       <c r="AC102" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>1</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -9541,22 +11356,25 @@
       <c r="AG102">
         <v>3.380359888076782</v>
       </c>
-      <c r="AH102" t="s">
-        <v>225</v>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>688108</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103">
         <v>19.99</v>
@@ -9574,7 +11392,7 @@
         <v>252861.62</v>
       </c>
       <c r="J103" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K103">
         <v>6</v>
@@ -9615,8 +11433,23 @@
       <c r="W103">
         <v>0.18</v>
       </c>
+      <c r="X103">
+        <v>-2.56</v>
+      </c>
+      <c r="Y103">
+        <v>47</v>
+      </c>
+      <c r="Z103">
+        <v>13.31</v>
+      </c>
       <c r="AC103" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD103">
+        <v>1</v>
+      </c>
+      <c r="AE103">
+        <v>1</v>
       </c>
       <c r="AF103">
         <v>1</v>
@@ -9624,22 +11457,25 @@
       <c r="AG103">
         <v>-8.416598320007324</v>
       </c>
-      <c r="AH103" t="s">
-        <v>226</v>
+      <c r="AH103">
+        <v>1</v>
+      </c>
+      <c r="AI103">
+        <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C104">
         <v>688110</v>
       </c>
       <c r="D104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E104">
         <v>7.01</v>
@@ -9657,7 +11493,7 @@
         <v>412316.95</v>
       </c>
       <c r="J104" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K104">
         <v>15</v>
@@ -9698,8 +11534,23 @@
       <c r="W104">
         <v>-0.42</v>
       </c>
+      <c r="X104">
+        <v>-1.81</v>
+      </c>
+      <c r="Y104">
+        <v>103.98</v>
+      </c>
+      <c r="Z104">
+        <v>-0.01</v>
+      </c>
       <c r="AC104" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
       </c>
       <c r="AF104">
         <v>1</v>
@@ -9707,22 +11558,25 @@
       <c r="AG104">
         <v>10.30224704742432</v>
       </c>
-      <c r="AH104" t="s">
-        <v>225</v>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C105">
         <v>688146</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E105">
         <v>-3.58</v>
@@ -9740,7 +11594,7 @@
         <v>92527.64999999999</v>
       </c>
       <c r="J105" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K105">
         <v>4</v>
@@ -9781,8 +11635,23 @@
       <c r="W105">
         <v>-0.67</v>
       </c>
+      <c r="X105">
+        <v>-2.13</v>
+      </c>
+      <c r="Y105">
+        <v>41.51</v>
+      </c>
+      <c r="Z105">
+        <v>2.65</v>
+      </c>
       <c r="AC105" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
       </c>
       <c r="AF105">
         <v>0</v>
@@ -9790,22 +11659,25 @@
       <c r="AG105">
         <v>5.051746845245361</v>
       </c>
-      <c r="AH105" t="s">
-        <v>225</v>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C106">
         <v>688147</v>
       </c>
       <c r="D106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106">
         <v>10.14</v>
@@ -9823,7 +11695,7 @@
         <v>68320.33</v>
       </c>
       <c r="J106" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K106">
         <v>1</v>
@@ -9864,8 +11736,23 @@
       <c r="W106">
         <v>0.76</v>
       </c>
+      <c r="X106">
+        <v>-1.71</v>
+      </c>
+      <c r="Y106">
+        <v>38.38</v>
+      </c>
+      <c r="Z106">
+        <v>1</v>
+      </c>
       <c r="AC106" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
       </c>
       <c r="AF106">
         <v>0</v>
@@ -9873,22 +11760,25 @@
       <c r="AG106">
         <v>-0.7448235750198364</v>
       </c>
-      <c r="AH106" t="s">
-        <v>225</v>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107">
         <v>688167</v>
       </c>
       <c r="D107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E107">
         <v>15.1</v>
@@ -9906,7 +11796,7 @@
         <v>96167.62</v>
       </c>
       <c r="J107" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K107">
         <v>9</v>
@@ -9947,8 +11837,23 @@
       <c r="W107">
         <v>0.02</v>
       </c>
+      <c r="X107">
+        <v>3.83</v>
+      </c>
+      <c r="Y107">
+        <v>122.58</v>
+      </c>
+      <c r="Z107">
+        <v>6.98</v>
+      </c>
       <c r="AC107" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
       </c>
       <c r="AF107">
         <v>0</v>
@@ -9956,22 +11861,25 @@
       <c r="AG107">
         <v>9.662310600280762</v>
       </c>
-      <c r="AH107" t="s">
-        <v>225</v>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C108">
         <v>688195</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E108">
         <v>19.99</v>
@@ -9989,7 +11897,7 @@
         <v>88925.16</v>
       </c>
       <c r="J108" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K108">
         <v>1</v>
@@ -10030,8 +11938,23 @@
       <c r="W108">
         <v>1.34</v>
       </c>
+      <c r="X108">
+        <v>4.22</v>
+      </c>
+      <c r="Y108">
+        <v>75.58</v>
+      </c>
+      <c r="Z108">
+        <v>16.82</v>
+      </c>
       <c r="AC108" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD108">
+        <v>1</v>
+      </c>
+      <c r="AE108">
+        <v>1</v>
       </c>
       <c r="AF108">
         <v>1</v>
@@ -10039,22 +11962,25 @@
       <c r="AG108">
         <v>13.38305950164795</v>
       </c>
-      <c r="AH108" t="s">
-        <v>226</v>
+      <c r="AH108">
+        <v>1</v>
+      </c>
+      <c r="AI108">
+        <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C109">
         <v>688199</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E109">
         <v>-1.86</v>
@@ -10072,7 +11998,7 @@
         <v>70341.82000000001</v>
       </c>
       <c r="J109" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K109">
         <v>4</v>
@@ -10113,8 +12039,23 @@
       <c r="W109">
         <v>0.3</v>
       </c>
+      <c r="X109">
+        <v>-3.13</v>
+      </c>
+      <c r="Y109">
+        <v>30.8</v>
+      </c>
+      <c r="Z109">
+        <v>2.5</v>
+      </c>
       <c r="AC109" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
       </c>
       <c r="AF109">
         <v>0</v>
@@ -10122,22 +12063,25 @@
       <c r="AG109">
         <v>-0.814354419708252</v>
       </c>
-      <c r="AH109" t="s">
-        <v>225</v>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C110">
         <v>688202</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E110">
         <v>1.55</v>
@@ -10155,7 +12099,7 @@
         <v>58449.29</v>
       </c>
       <c r="J110" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K110">
         <v>4</v>
@@ -10196,8 +12140,23 @@
       <c r="W110">
         <v>-0.28</v>
       </c>
+      <c r="X110">
+        <v>-3.7</v>
+      </c>
+      <c r="Y110">
+        <v>70.39</v>
+      </c>
+      <c r="Z110">
+        <v>5.53</v>
+      </c>
       <c r="AC110" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
       </c>
       <c r="AF110">
         <v>0</v>
@@ -10205,22 +12164,25 @@
       <c r="AG110">
         <v>16.32706832885742</v>
       </c>
-      <c r="AH110" t="s">
-        <v>225</v>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C111">
         <v>688270</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E111">
         <v>2.92</v>
@@ -10238,7 +12200,7 @@
         <v>130773.88</v>
       </c>
       <c r="J111" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K111">
         <v>4</v>
@@ -10279,8 +12241,23 @@
       <c r="W111">
         <v>-0.01</v>
       </c>
+      <c r="X111">
+        <v>5.01</v>
+      </c>
+      <c r="Y111">
+        <v>73.31</v>
+      </c>
+      <c r="Z111">
+        <v>5.59</v>
+      </c>
       <c r="AC111" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
       </c>
       <c r="AF111">
         <v>0</v>
@@ -10288,22 +12265,25 @@
       <c r="AG111">
         <v>-5.60814380645752</v>
       </c>
-      <c r="AH111" t="s">
-        <v>225</v>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:34">
+    <row r="112" spans="1:35">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C112">
         <v>688273</v>
       </c>
       <c r="D112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E112">
         <v>-1.27</v>
@@ -10321,7 +12301,7 @@
         <v>26420.12</v>
       </c>
       <c r="J112" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K112">
         <v>5</v>
@@ -10362,8 +12342,23 @@
       <c r="W112">
         <v>-1.47</v>
       </c>
+      <c r="X112">
+        <v>-0.78</v>
+      </c>
+      <c r="Y112">
+        <v>49.4</v>
+      </c>
+      <c r="Z112">
+        <v>4.48</v>
+      </c>
       <c r="AC112" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
       </c>
       <c r="AF112">
         <v>0</v>
@@ -10371,22 +12366,25 @@
       <c r="AG112">
         <v>5.401157379150391</v>
       </c>
-      <c r="AH112" t="s">
-        <v>225</v>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34">
+    <row r="113" spans="1:35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C113">
         <v>688291</v>
       </c>
       <c r="D113" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E113">
         <v>10.19</v>
@@ -10404,7 +12402,7 @@
         <v>40246.21</v>
       </c>
       <c r="J113" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K113">
         <v>3</v>
@@ -10445,8 +12443,23 @@
       <c r="W113">
         <v>2.31</v>
       </c>
+      <c r="X113">
+        <v>-4.78</v>
+      </c>
+      <c r="Y113">
+        <v>41.11</v>
+      </c>
+      <c r="Z113">
+        <v>-0.24</v>
+      </c>
       <c r="AC113" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
       </c>
       <c r="AF113">
         <v>0</v>
@@ -10454,22 +12467,25 @@
       <c r="AG113">
         <v>0.9463739991188049</v>
       </c>
-      <c r="AH113" t="s">
-        <v>225</v>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:34">
+    <row r="114" spans="1:35">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C114">
         <v>688313</v>
       </c>
       <c r="D114" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E114">
         <v>16.38</v>
@@ -10487,7 +12503,7 @@
         <v>411037.62</v>
       </c>
       <c r="J114" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K114">
         <v>5</v>
@@ -10528,8 +12544,23 @@
       <c r="W114">
         <v>-0.82</v>
       </c>
+      <c r="X114">
+        <v>-1.5</v>
+      </c>
+      <c r="Y114">
+        <v>67.17</v>
+      </c>
+      <c r="Z114">
+        <v>2.88</v>
+      </c>
       <c r="AC114" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
       </c>
       <c r="AF114">
         <v>1</v>
@@ -10537,22 +12568,25 @@
       <c r="AG114">
         <v>6.812934875488281</v>
       </c>
-      <c r="AH114" t="s">
-        <v>225</v>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:34">
+    <row r="115" spans="1:35">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C115">
         <v>688321</v>
       </c>
       <c r="D115" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E115">
         <v>-4.44</v>
@@ -10570,7 +12604,7 @@
         <v>187480.92</v>
       </c>
       <c r="J115" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K115">
         <v>6</v>
@@ -10611,8 +12645,23 @@
       <c r="W115">
         <v>-0.77</v>
       </c>
+      <c r="X115">
+        <v>-4.87</v>
+      </c>
+      <c r="Y115">
+        <v>41.8</v>
+      </c>
+      <c r="Z115">
+        <v>1.8</v>
+      </c>
       <c r="AC115" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
       </c>
       <c r="AF115">
         <v>0</v>
@@ -10620,22 +12669,25 @@
       <c r="AG115">
         <v>2.496488571166992</v>
       </c>
-      <c r="AH115" t="s">
-        <v>225</v>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:34">
+    <row r="116" spans="1:35">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C116">
         <v>688379</v>
       </c>
       <c r="D116" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E116">
         <v>13.28</v>
@@ -10653,7 +12705,7 @@
         <v>68920.38</v>
       </c>
       <c r="J116" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K116">
         <v>7</v>
@@ -10694,8 +12746,23 @@
       <c r="W116">
         <v>-0.36</v>
       </c>
+      <c r="X116">
+        <v>-1.35</v>
+      </c>
+      <c r="Y116">
+        <v>67.53</v>
+      </c>
+      <c r="Z116">
+        <v>0.22</v>
+      </c>
       <c r="AC116" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
       </c>
       <c r="AF116">
         <v>0</v>
@@ -10703,22 +12770,25 @@
       <c r="AG116">
         <v>9.721173286437988</v>
       </c>
-      <c r="AH116" t="s">
-        <v>225</v>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:34">
+    <row r="117" spans="1:35">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C117">
         <v>688401</v>
       </c>
       <c r="D117" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E117">
         <v>0.49</v>
@@ -10736,7 +12806,7 @@
         <v>43020.8</v>
       </c>
       <c r="J117" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -10777,8 +12847,23 @@
       <c r="W117">
         <v>0.17</v>
       </c>
+      <c r="X117">
+        <v>-2.66</v>
+      </c>
+      <c r="Y117">
+        <v>45.01</v>
+      </c>
+      <c r="Z117">
+        <v>-0.99</v>
+      </c>
       <c r="AC117" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
       </c>
       <c r="AF117">
         <v>0</v>
@@ -10786,22 +12871,25 @@
       <c r="AG117">
         <v>6.801147937774658</v>
       </c>
-      <c r="AH117" t="s">
-        <v>225</v>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:34">
+    <row r="118" spans="1:35">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C118">
         <v>688448</v>
       </c>
       <c r="D118" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E118">
         <v>15.97</v>
@@ -10819,7 +12907,7 @@
         <v>70328.33</v>
       </c>
       <c r="J118" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K118">
         <v>4</v>
@@ -10860,8 +12948,23 @@
       <c r="W118">
         <v>2.3</v>
       </c>
+      <c r="X118">
+        <v>0.25</v>
+      </c>
+      <c r="Y118">
+        <v>69.16</v>
+      </c>
+      <c r="Z118">
+        <v>6.42</v>
+      </c>
       <c r="AC118" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
       </c>
       <c r="AF118">
         <v>0</v>
@@ -10869,22 +12972,25 @@
       <c r="AG118">
         <v>2.301626682281494</v>
       </c>
-      <c r="AH118" t="s">
-        <v>225</v>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118">
+        <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:34">
+    <row r="119" spans="1:35">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C119">
         <v>688498</v>
       </c>
       <c r="D119" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E119">
         <v>4.18</v>
@@ -10902,7 +13008,7 @@
         <v>107953.84</v>
       </c>
       <c r="J119" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K119">
         <v>5</v>
@@ -10943,8 +13049,23 @@
       <c r="W119">
         <v>0.38</v>
       </c>
+      <c r="X119">
+        <v>-0.72</v>
+      </c>
+      <c r="Y119">
+        <v>292.02</v>
+      </c>
+      <c r="Z119">
+        <v>5.42</v>
+      </c>
       <c r="AC119" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
       </c>
       <c r="AF119">
         <v>0</v>
@@ -10952,22 +13073,25 @@
       <c r="AG119">
         <v>2.695029258728027</v>
       </c>
-      <c r="AH119" t="s">
-        <v>225</v>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:34">
+    <row r="120" spans="1:35">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C120">
         <v>688499</v>
       </c>
       <c r="D120" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E120">
         <v>5.13</v>
@@ -10985,7 +13109,7 @@
         <v>75885.78999999999</v>
       </c>
       <c r="J120" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K120">
         <v>45</v>
@@ -11026,8 +13150,23 @@
       <c r="W120">
         <v>-0.33</v>
       </c>
+      <c r="X120">
+        <v>-0.19</v>
+      </c>
+      <c r="Y120">
+        <v>64.18000000000001</v>
+      </c>
+      <c r="Z120">
+        <v>2.94</v>
+      </c>
       <c r="AC120" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
       </c>
       <c r="AF120">
         <v>0</v>
@@ -11035,22 +13174,25 @@
       <c r="AG120">
         <v>4.264509201049805</v>
       </c>
-      <c r="AH120" t="s">
-        <v>225</v>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:34">
+    <row r="121" spans="1:35">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C121">
         <v>688502</v>
       </c>
       <c r="D121" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E121">
         <v>9.039999999999999</v>
@@ -11068,7 +13210,7 @@
         <v>68199.64</v>
       </c>
       <c r="J121" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K121">
         <v>16</v>
@@ -11109,8 +13251,23 @@
       <c r="W121">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X121">
+        <v>-2.11</v>
+      </c>
+      <c r="Y121">
+        <v>395</v>
+      </c>
+      <c r="Z121">
+        <v>2.49</v>
+      </c>
       <c r="AC121" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
       </c>
       <c r="AF121">
         <v>0</v>
@@ -11118,22 +13275,25 @@
       <c r="AG121">
         <v>-3.915894985198975</v>
       </c>
-      <c r="AH121" t="s">
-        <v>225</v>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:34">
+    <row r="122" spans="1:35">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C122">
         <v>688584</v>
       </c>
       <c r="D122" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E122">
         <v>1.98</v>
@@ -11151,7 +13311,7 @@
         <v>76127.63</v>
       </c>
       <c r="J122" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K122">
         <v>4</v>
@@ -11192,8 +13352,23 @@
       <c r="W122">
         <v>-0.1</v>
       </c>
+      <c r="X122">
+        <v>-7.72</v>
+      </c>
+      <c r="Y122">
+        <v>26.83</v>
+      </c>
+      <c r="Z122">
+        <v>-1.79</v>
+      </c>
       <c r="AC122" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
       </c>
       <c r="AF122">
         <v>0</v>
@@ -11201,22 +13376,25 @@
       <c r="AG122">
         <v>8.575143814086914</v>
       </c>
-      <c r="AH122" t="s">
-        <v>225</v>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:34">
+    <row r="123" spans="1:35">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C123">
         <v>688591</v>
       </c>
       <c r="D123" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E123">
         <v>1.97</v>
@@ -11234,7 +13412,7 @@
         <v>78277.08</v>
       </c>
       <c r="J123" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K123">
         <v>4</v>
@@ -11275,8 +13453,23 @@
       <c r="W123">
         <v>0.49</v>
       </c>
+      <c r="X123">
+        <v>-6.67</v>
+      </c>
+      <c r="Y123">
+        <v>54</v>
+      </c>
+      <c r="Z123">
+        <v>-0.55</v>
+      </c>
       <c r="AC123" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD123">
+        <v>0</v>
+      </c>
+      <c r="AE123">
+        <v>0</v>
       </c>
       <c r="AF123">
         <v>0</v>
@@ -11284,22 +13477,25 @@
       <c r="AG123">
         <v>2.930336952209473</v>
       </c>
-      <c r="AH123" t="s">
-        <v>225</v>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AI123">
+        <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:34">
+    <row r="124" spans="1:35">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C124">
         <v>688603</v>
       </c>
       <c r="D124" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E124">
         <v>20</v>
@@ -11317,7 +13513,7 @@
         <v>61707.18</v>
       </c>
       <c r="J124" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K124">
         <v>4</v>
@@ -11358,8 +13554,23 @@
       <c r="W124">
         <v>0.23</v>
       </c>
+      <c r="X124">
+        <v>-2.75</v>
+      </c>
+      <c r="Y124">
+        <v>106.45</v>
+      </c>
+      <c r="Z124">
+        <v>10</v>
+      </c>
       <c r="AC124" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD124">
+        <v>1</v>
+      </c>
+      <c r="AE124">
+        <v>1</v>
       </c>
       <c r="AF124">
         <v>1</v>
@@ -11367,22 +13578,25 @@
       <c r="AG124">
         <v>8.943220138549805</v>
       </c>
-      <c r="AH124" t="s">
-        <v>226</v>
+      <c r="AH124">
+        <v>1</v>
+      </c>
+      <c r="AI124">
+        <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:34">
+    <row r="125" spans="1:35">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C125">
         <v>688661</v>
       </c>
       <c r="D125" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E125">
         <v>-0.86</v>
@@ -11400,7 +13614,7 @@
         <v>69987.09</v>
       </c>
       <c r="J125" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K125">
         <v>2</v>
@@ -11441,8 +13655,23 @@
       <c r="W125">
         <v>0.25</v>
       </c>
+      <c r="X125">
+        <v>-2.89</v>
+      </c>
+      <c r="Y125">
+        <v>48.36</v>
+      </c>
+      <c r="Z125">
+        <v>-0.19</v>
+      </c>
       <c r="AC125" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD125">
+        <v>0</v>
+      </c>
+      <c r="AE125">
+        <v>0</v>
       </c>
       <c r="AF125">
         <v>0</v>
@@ -11450,22 +13679,25 @@
       <c r="AG125">
         <v>4.0878005027771</v>
       </c>
-      <c r="AH125" t="s">
-        <v>225</v>
+      <c r="AH125">
+        <v>0</v>
+      </c>
+      <c r="AI125">
+        <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:34">
+    <row r="126" spans="1:35">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C126">
         <v>688668</v>
       </c>
       <c r="D126" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E126">
         <v>9.140000000000001</v>
@@ -11483,7 +13715,7 @@
         <v>90358.85000000001</v>
       </c>
       <c r="J126" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K126">
         <v>23</v>
@@ -11524,8 +13756,23 @@
       <c r="W126">
         <v>0.36</v>
       </c>
+      <c r="X126">
+        <v>-6.15</v>
+      </c>
+      <c r="Y126">
+        <v>122.88</v>
+      </c>
+      <c r="Z126">
+        <v>2.36</v>
+      </c>
       <c r="AC126" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="AD126">
+        <v>0</v>
+      </c>
+      <c r="AE126">
+        <v>0</v>
       </c>
       <c r="AF126">
         <v>0</v>
@@ -11533,22 +13780,25 @@
       <c r="AG126">
         <v>-4.826572895050049</v>
       </c>
-      <c r="AH126" t="s">
-        <v>225</v>
+      <c r="AH126">
+        <v>0</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:34">
+    <row r="127" spans="1:35">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C127">
         <v>688716</v>
       </c>
       <c r="D127" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E127">
         <v>13.46</v>
@@ -11566,7 +13816,7 @@
         <v>115107.3</v>
       </c>
       <c r="J127" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K127">
         <v>3</v>
@@ -11607,8 +13857,23 @@
       <c r="W127">
         <v>-0.5</v>
       </c>
+      <c r="X127">
+        <v>-5.25</v>
+      </c>
+      <c r="Y127">
+        <v>56.68</v>
+      </c>
+      <c r="Z127">
+        <v>-0.21</v>
+      </c>
       <c r="AC127" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD127">
+        <v>0</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
       </c>
       <c r="AF127">
         <v>0</v>
@@ -11616,22 +13881,25 @@
       <c r="AG127">
         <v>2.539585590362549</v>
       </c>
-      <c r="AH127" t="s">
-        <v>225</v>
+      <c r="AH127">
+        <v>0</v>
+      </c>
+      <c r="AI127">
+        <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:34">
+    <row r="128" spans="1:35">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C128">
         <v>688733</v>
       </c>
       <c r="D128" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E128">
         <v>-3.85</v>
@@ -11649,7 +13917,7 @@
         <v>94656.53999999999</v>
       </c>
       <c r="J128" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11690,8 +13958,23 @@
       <c r="W128">
         <v>-1.18</v>
       </c>
+      <c r="X128">
+        <v>-6.62</v>
+      </c>
+      <c r="Y128">
+        <v>31</v>
+      </c>
+      <c r="Z128">
+        <v>-1.4</v>
+      </c>
       <c r="AC128" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD128">
+        <v>0</v>
+      </c>
+      <c r="AE128">
+        <v>0</v>
       </c>
       <c r="AF128">
         <v>0</v>
@@ -11699,22 +13982,25 @@
       <c r="AG128">
         <v>0.02061089687049389</v>
       </c>
-      <c r="AH128" t="s">
-        <v>225</v>
+      <c r="AH128">
+        <v>0</v>
+      </c>
+      <c r="AI128">
+        <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:34">
+    <row r="129" spans="1:35">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C129">
         <v>688767</v>
       </c>
       <c r="D129" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E129">
         <v>4.24</v>
@@ -11732,7 +14018,7 @@
         <v>62706.96</v>
       </c>
       <c r="J129" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -11773,8 +14059,23 @@
       <c r="W129">
         <v>-0.31</v>
       </c>
+      <c r="X129">
+        <v>-2.66</v>
+      </c>
+      <c r="Y129">
+        <v>48.96</v>
+      </c>
+      <c r="Z129">
+        <v>5.91</v>
+      </c>
       <c r="AC129" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD129">
+        <v>0</v>
+      </c>
+      <c r="AE129">
+        <v>0</v>
       </c>
       <c r="AF129">
         <v>0</v>
@@ -11782,22 +14083,25 @@
       <c r="AG129">
         <v>-7.981111526489258</v>
       </c>
-      <c r="AH129" t="s">
-        <v>225</v>
+      <c r="AH129">
+        <v>0</v>
+      </c>
+      <c r="AI129">
+        <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:34">
+    <row r="130" spans="1:35">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130">
         <v>688800</v>
       </c>
       <c r="D130" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E130">
         <v>0.04</v>
@@ -11815,7 +14119,7 @@
         <v>175490</v>
       </c>
       <c r="J130" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K130">
         <v>10</v>
@@ -11856,8 +14160,23 @@
       <c r="W130">
         <v>-0.13</v>
       </c>
+      <c r="X130">
+        <v>3.64</v>
+      </c>
+      <c r="Y130">
+        <v>85</v>
+      </c>
+      <c r="Z130">
+        <v>9.210000000000001</v>
+      </c>
       <c r="AC130" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="AD130">
+        <v>0</v>
+      </c>
+      <c r="AE130">
+        <v>1</v>
       </c>
       <c r="AF130">
         <v>0</v>
@@ -11865,8 +14184,11 @@
       <c r="AG130">
         <v>1.025233626365662</v>
       </c>
-      <c r="AH130" t="s">
-        <v>225</v>
+      <c r="AH130">
+        <v>0</v>
+      </c>
+      <c r="AI130">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
